--- a/Java Syallabus.xlsx
+++ b/Java Syallabus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1819D157-4B18-4A68-9838-D0F15B5AC8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E9FD6D-5562-47A4-A4B6-8200F7FFE635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C69188D5-3413-42BD-A72B-0245F13F4DB4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="109">
   <si>
     <t>Introduction</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>Check Constraints</t>
+  </si>
+  <si>
+    <t>Extra</t>
   </si>
 </sst>
 </file>
@@ -752,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BAA9CE-78D4-4DF4-8779-B5CE08C693AB}">
   <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,6 +1335,9 @@
       <c r="B83" s="3"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="B84" s="3"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">

--- a/Java Syallabus.xlsx
+++ b/Java Syallabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E9FD6D-5562-47A4-A4B6-8200F7FFE635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99F4E2F-4A8D-4A09-A7A1-F0AC0C8D45EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C69188D5-3413-42BD-A72B-0245F13F4DB4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
   <si>
     <t>Introduction</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Encapsulation</t>
   </si>
   <si>
-    <t>Introduction to all predefined packages</t>
-  </si>
-  <si>
     <t>User Defined Packages</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>Single Dimensional Array</t>
   </si>
   <si>
-    <t>Multi Dimensional Array</t>
-  </si>
-  <si>
     <t>Sorting of Arrays</t>
   </si>
   <si>
@@ -134,18 +128,6 @@
     <t>User Defined Exception examples</t>
   </si>
   <si>
-    <t>I/O Streams</t>
-  </si>
-  <si>
-    <t>Byte-oriented streams</t>
-  </si>
-  <si>
-    <t>Character – oriented streams</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
     <t>Multithreading</t>
   </si>
   <si>
@@ -158,12 +140,6 @@
     <t>Life Cycle Methods</t>
   </si>
   <si>
-    <t>Synchronization</t>
-  </si>
-  <si>
-    <t>Wait() notify() notify all() methods</t>
-  </si>
-  <si>
     <t>Wrapper Classes</t>
   </si>
   <si>
@@ -203,45 +179,6 @@
     <t>Map Interface &amp; Is Classes</t>
   </si>
   <si>
-    <t>AWT</t>
-  </si>
-  <si>
-    <t>Components</t>
-  </si>
-  <si>
-    <t>Event-Delegation-Model</t>
-  </si>
-  <si>
-    <t>Listeners</t>
-  </si>
-  <si>
-    <t>Layouts</t>
-  </si>
-  <si>
-    <t>Individual Components Lable, Button, Check Box, Radio Button,</t>
-  </si>
-  <si>
-    <t>Choice, List, Menu, Text Field, Text Area</t>
-  </si>
-  <si>
-    <t>SWING (JFC)</t>
-  </si>
-  <si>
-    <t>Introduction Diff B/W AWT and SWING</t>
-  </si>
-  <si>
-    <t>Components hierarchy</t>
-  </si>
-  <si>
-    <t>Panes</t>
-  </si>
-  <si>
-    <t>Individual Swings components J Label</t>
-  </si>
-  <si>
-    <t>JButton, JTextField, JTextAres</t>
-  </si>
-  <si>
     <t>Java 8</t>
   </si>
   <si>
@@ -308,12 +245,6 @@
     <t>Union</t>
   </si>
   <si>
-    <t>Advance SQL Commands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timestamps And Extract </t>
-  </si>
-  <si>
     <t xml:space="preserve">String Functions And Operations </t>
   </si>
   <si>
@@ -359,7 +290,55 @@
     <t>Check Constraints</t>
   </si>
   <si>
-    <t>Extra</t>
+    <t xml:space="preserve">Anonymous Inner Classes And Lambda Expression </t>
+  </si>
+  <si>
+    <t>Streams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default Method And Static Methods In Interface </t>
+  </si>
+  <si>
+    <t>Method And Constructor Reference By Using :: Operator</t>
+  </si>
+  <si>
+    <t>Date And Time API</t>
+  </si>
+  <si>
+    <t>Spring And Hibernate For Beginners(includes Spring Boot)</t>
+  </si>
+  <si>
+    <t>Spring Overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring Bean Scopes And Lifecycle </t>
+  </si>
+  <si>
+    <t>Spring Configration with Java Annotations</t>
+  </si>
+  <si>
+    <t>Spring MVC - Building Spring Web Apps</t>
+  </si>
+  <si>
+    <t>Join Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MangoDB </t>
+  </si>
+  <si>
+    <t>Getting Started With MangoDB</t>
+  </si>
+  <si>
+    <t>CURD Operations With MangoDB</t>
+  </si>
+  <si>
+    <t>MangoDB With Spring Boot</t>
+  </si>
+  <si>
+    <t>MangoDB CURD Operations With Spring Boot</t>
+  </si>
+  <si>
+    <t>Reference To Other Collections</t>
   </si>
 </sst>
 </file>
@@ -407,7 +386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -433,11 +412,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,16 +733,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BAA9CE-78D4-4DF4-8779-B5CE08C693AB}">
-  <dimension ref="A1:B150"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="49" style="3" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -778,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -786,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -794,7 +775,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -802,7 +783,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -810,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -818,7 +799,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -826,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -834,7 +815,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -842,7 +823,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -850,7 +831,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -858,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -874,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -882,7 +863,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -890,7 +871,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -898,15 +879,15 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -914,23 +895,23 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -938,23 +919,23 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B23" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -962,7 +943,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -970,47 +951,47 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="B27" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="B30" s="3" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1018,7 +999,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1026,517 +1007,240 @@
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="B36" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="B37" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="3"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="3"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    </row>
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="3"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="3"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    </row>
+    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="3"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="3"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" s="3"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B74" s="3"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B75" s="3"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B77" s="3"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="3"/>
-    </row>
-    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B80" s="3"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B81" s="3"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="3"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B84" s="3"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="3"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="3"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="3"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="3"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="3"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="3"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="3"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="3"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="3"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="3"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="3"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="3"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="3"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="3"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="3"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="3"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="3"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="3"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="3"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="3"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="3"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="3"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="3"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="3"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="3"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="3"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="3"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="3"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="3"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="3"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="3"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="3"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="3"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="3"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="3"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="3"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="3"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="3"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="3"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="3"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="3"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="3"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="3"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="3"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="3"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="3"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="3"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="3"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="3"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="3"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="3"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="3"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="3"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="3"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="3"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="3"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="3"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="3"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="3"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="3"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="3"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="3"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="3"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="3"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="3"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="3"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
